--- a/data/positive_signals/Disease - Total occurrences (B-to-X) - Rosiglitazone - all categories.xlsx
+++ b/data/positive_signals/Disease - Total occurrences (B-to-X) - Rosiglitazone - all categories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="486">
   <si>
     <t>pathWeight</t>
   </si>
@@ -93,6 +93,327 @@
     <t>tier01TripleInformation/8/predicateName</t>
   </si>
   <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>Chemicals &amp; Drugs</t>
+  </si>
+  <si>
+    <t>520020</t>
+  </si>
+  <si>
+    <t>roname</t>
+  </si>
+  <si>
+    <t>39412282</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>721922</t>
+  </si>
+  <si>
+    <t>cytochrome p450 3a4 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>9665549</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>102385</t>
+  </si>
+  <si>
+    <t>cytochrome p450 2d6 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>9846490</t>
+  </si>
+  <si>
+    <t>2395904</t>
+  </si>
+  <si>
+    <t>cytochrome p450 2c9 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>6237150</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>166343</t>
+  </si>
+  <si>
+    <t>cytochrome p450 2c19 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>9652610</t>
+  </si>
+  <si>
+    <t>2711012</t>
+  </si>
+  <si>
+    <t>cytochrome p450 1a2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>9687312</t>
+  </si>
+  <si>
+    <t>55719</t>
+  </si>
+  <si>
+    <t>plant extracts</t>
+  </si>
+  <si>
+    <t>23410673</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>153796</t>
+  </si>
+  <si>
+    <t>pharmacologic substance</t>
+  </si>
+  <si>
+    <t>39412284</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>148878</t>
+  </si>
+  <si>
+    <t>streptozocin</t>
+  </si>
+  <si>
+    <t>21053174</t>
+  </si>
+  <si>
+    <t>5102415</t>
+  </si>
+  <si>
+    <t>anti-arrhythmia agents</t>
+  </si>
+  <si>
+    <t>39412283</t>
+  </si>
+  <si>
+    <t>3364626</t>
+  </si>
+  <si>
+    <t>zanosar</t>
+  </si>
+  <si>
+    <t>21053177</t>
+  </si>
+  <si>
+    <t>124041</t>
+  </si>
+  <si>
+    <t>taurocholate</t>
+  </si>
+  <si>
+    <t>18760538</t>
+  </si>
+  <si>
+    <t>169737</t>
+  </si>
+  <si>
+    <t>taurocholic acid, monosodium salt</t>
+  </si>
+  <si>
+    <t>18760530</t>
+  </si>
+  <si>
+    <t>6127958</t>
+  </si>
+  <si>
+    <t>taurocholic acid</t>
+  </si>
+  <si>
+    <t>18760528</t>
+  </si>
+  <si>
+    <t>40651</t>
+  </si>
+  <si>
+    <t>atp-binding cassette sub-family c member 8 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>39412291</t>
+  </si>
+  <si>
+    <t>3380530</t>
+  </si>
+  <si>
+    <t>taurocholic acid, (7 beta)-isomer</t>
+  </si>
+  <si>
+    <t>18760535</t>
+  </si>
+  <si>
+    <t>3380132</t>
+  </si>
+  <si>
+    <t>taurocholic acid, (5 alpha)-isomer</t>
+  </si>
+  <si>
+    <t>18760533</t>
+  </si>
+  <si>
+    <t>2562157</t>
+  </si>
+  <si>
+    <t>taurocholic acid, monolithium salt</t>
+  </si>
+  <si>
+    <t>18760542</t>
+  </si>
+  <si>
+    <t>266580</t>
+  </si>
+  <si>
+    <t>atp-sensitive inward rectifier potassium channel 11 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>39412290</t>
+  </si>
+  <si>
+    <t>2828501</t>
+  </si>
+  <si>
+    <t>peripheral myelin protein 22 (rattus norvegicus)</t>
+  </si>
+  <si>
+    <t>12179131</t>
+  </si>
+  <si>
+    <t>4736674</t>
+  </si>
+  <si>
+    <t>glimepiride</t>
+  </si>
+  <si>
+    <t>138086412</t>
+  </si>
+  <si>
+    <t>is parent of</t>
+  </si>
+  <si>
+    <t>5804823</t>
+  </si>
+  <si>
+    <t>sulfobromophthalein</t>
+  </si>
+  <si>
+    <t>22436757</t>
+  </si>
+  <si>
+    <t>22867138</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>764859</t>
+  </si>
+  <si>
+    <t>atp-sensitive inward rectifier potassium channel 1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>39412289</t>
+  </si>
+  <si>
+    <t>3744122</t>
+  </si>
+  <si>
+    <t>bromsulphalein</t>
+  </si>
+  <si>
+    <t>22867135</t>
+  </si>
+  <si>
+    <t>22436749</t>
+  </si>
+  <si>
+    <t>3371124</t>
+  </si>
+  <si>
+    <t>sulfobromophthalein sodium</t>
+  </si>
+  <si>
+    <t>22436760</t>
+  </si>
+  <si>
+    <t>22867139</t>
+  </si>
+  <si>
+    <t>2546595</t>
+  </si>
+  <si>
+    <t>bromthalein</t>
+  </si>
+  <si>
+    <t>22867137</t>
+  </si>
+  <si>
+    <t>22436755</t>
+  </si>
+  <si>
+    <t>511330</t>
+  </si>
+  <si>
+    <t>tetrabromsulphthalein</t>
+  </si>
+  <si>
+    <t>22436752</t>
+  </si>
+  <si>
+    <t>22867136</t>
+  </si>
+  <si>
+    <t>2449184</t>
+  </si>
+  <si>
+    <t>tissue membrane</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>39412285</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>39412286</t>
+  </si>
+  <si>
+    <t>395518</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>39412287</t>
+  </si>
+  <si>
     <t>1469040</t>
   </si>
   <si>
@@ -102,19 +423,7 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>395842</t>
-  </si>
-  <si>
-    <t>2-((2-benzoylphenyl)amino)-3-(4-(2-(5-methyl-2-phenyloxazol-4-yl)ethoxy)phenyl)propanoic acid</t>
-  </si>
-  <si>
-    <t>Chemicals &amp; Drugs</t>
-  </si>
-  <si>
-    <t>111951309</t>
-  </si>
-  <si>
-    <t>affects</t>
+    <t>45783911</t>
   </si>
   <si>
     <t>2792717</t>
@@ -123,7 +432,7 @@
     <t>cd36 (homo sapiens)</t>
   </si>
   <si>
-    <t>111963897</t>
+    <t>45794570</t>
   </si>
   <si>
     <t>2792202</t>
@@ -132,7 +441,7 @@
     <t>lcp1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111951311</t>
+    <t>45783913</t>
   </si>
   <si>
     <t>2786784</t>
@@ -141,7 +450,805 @@
     <t>fabp4 (homo sapiens)</t>
   </si>
   <si>
-    <t>111971626</t>
+    <t>45804171</t>
+  </si>
+  <si>
+    <t>2785960</t>
+  </si>
+  <si>
+    <t>cyp3a4 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>17293910</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>2785900</t>
+  </si>
+  <si>
+    <t>gnb1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45796874</t>
+  </si>
+  <si>
+    <t>2723853</t>
+  </si>
+  <si>
+    <t>pparg (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45805202</t>
+  </si>
+  <si>
+    <t>1052177</t>
+  </si>
+  <si>
+    <t>ins (homo sapiens)</t>
+  </si>
+  <si>
+    <t>22064647</t>
+  </si>
+  <si>
+    <t>2788498</t>
+  </si>
+  <si>
+    <t>gnb3 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45801161</t>
+  </si>
+  <si>
+    <t>2788262</t>
+  </si>
+  <si>
+    <t>gnb2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45796881</t>
+  </si>
+  <si>
+    <t>3021478</t>
+  </si>
+  <si>
+    <t>gnb4 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783652</t>
+  </si>
+  <si>
+    <t>1658611</t>
+  </si>
+  <si>
+    <t>nr1i2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>17293996</t>
+  </si>
+  <si>
+    <t>667631</t>
+  </si>
+  <si>
+    <t>gng2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783711</t>
+  </si>
+  <si>
+    <t>3020695</t>
+  </si>
+  <si>
+    <t>gngt1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45804423</t>
+  </si>
+  <si>
+    <t>3020727</t>
+  </si>
+  <si>
+    <t>gng11 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45796895</t>
+  </si>
+  <si>
+    <t>1656749</t>
+  </si>
+  <si>
+    <t>ppt1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784299</t>
+  </si>
+  <si>
+    <t>667356</t>
+  </si>
+  <si>
+    <t>gng12 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783690</t>
+  </si>
+  <si>
+    <t>3020670</t>
+  </si>
+  <si>
+    <t>gng4 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45804375</t>
+  </si>
+  <si>
+    <t>2791192</t>
+  </si>
+  <si>
+    <t>gnai2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783616</t>
+  </si>
+  <si>
+    <t>3020880</t>
+  </si>
+  <si>
+    <t>gnb5 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45796886</t>
+  </si>
+  <si>
+    <t>3020710</t>
+  </si>
+  <si>
+    <t>gng7 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783763</t>
+  </si>
+  <si>
+    <t>2791122</t>
+  </si>
+  <si>
+    <t>cebpa (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45798890</t>
+  </si>
+  <si>
+    <t>3020676</t>
+  </si>
+  <si>
+    <t>gng3 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783749</t>
+  </si>
+  <si>
+    <t>2724856</t>
+  </si>
+  <si>
+    <t>crebbp (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783435</t>
+  </si>
+  <si>
+    <t>3020607</t>
+  </si>
+  <si>
+    <t>gng5 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45796904</t>
+  </si>
+  <si>
+    <t>1653849</t>
+  </si>
+  <si>
+    <t>gng8 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45801185</t>
+  </si>
+  <si>
+    <t>3020901</t>
+  </si>
+  <si>
+    <t>gngt2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45796974</t>
+  </si>
+  <si>
+    <t>3020519</t>
+  </si>
+  <si>
+    <t>gng10 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45804326</t>
+  </si>
+  <si>
+    <t>2788945</t>
+  </si>
+  <si>
+    <t>gnaq (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783639</t>
+  </si>
+  <si>
+    <t>3009969</t>
+  </si>
+  <si>
+    <t>gng13 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783700</t>
+  </si>
+  <si>
+    <t>1656888</t>
+  </si>
+  <si>
+    <t>ppt2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45797488</t>
+  </si>
+  <si>
+    <t>1657431</t>
+  </si>
+  <si>
+    <t>ppargc1a (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45802639</t>
+  </si>
+  <si>
+    <t>2791086</t>
+  </si>
+  <si>
+    <t>ep300 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783523</t>
+  </si>
+  <si>
+    <t>1803353</t>
+  </si>
+  <si>
+    <t>med12 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45797162</t>
+  </si>
+  <si>
+    <t>2791993</t>
+  </si>
+  <si>
+    <t>acsl1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45803830</t>
+  </si>
+  <si>
+    <t>2278778</t>
+  </si>
+  <si>
+    <t>lep (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45797114</t>
+  </si>
+  <si>
+    <t>2790719</t>
+  </si>
+  <si>
+    <t>med1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45797187</t>
+  </si>
+  <si>
+    <t>2959900</t>
+  </si>
+  <si>
+    <t>abcb11 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18760435</t>
+  </si>
+  <si>
+    <t>1779357</t>
+  </si>
+  <si>
+    <t>akr1c1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18793165</t>
+  </si>
+  <si>
+    <t>2792552</t>
+  </si>
+  <si>
+    <t>ncoa3 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45805094</t>
+  </si>
+  <si>
+    <t>2148815</t>
+  </si>
+  <si>
+    <t>gna11 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45796862</t>
+  </si>
+  <si>
+    <t>2963192</t>
+  </si>
+  <si>
+    <t>akr1c3 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>21301900</t>
+  </si>
+  <si>
+    <t>2788376</t>
+  </si>
+  <si>
+    <t>rxra (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45797603</t>
+  </si>
+  <si>
+    <t>1806076</t>
+  </si>
+  <si>
+    <t>angptl4 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783153</t>
+  </si>
+  <si>
+    <t>1794838</t>
+  </si>
+  <si>
+    <t>acsl3 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45799813</t>
+  </si>
+  <si>
+    <t>3017603</t>
+  </si>
+  <si>
+    <t>acsl4 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45782893</t>
+  </si>
+  <si>
+    <t>3022065</t>
+  </si>
+  <si>
+    <t>acsl5 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45782923</t>
+  </si>
+  <si>
+    <t>2138626</t>
+  </si>
+  <si>
+    <t>adipoq (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45799865</t>
+  </si>
+  <si>
+    <t>2998664</t>
+  </si>
+  <si>
+    <t>med4 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45802301</t>
+  </si>
+  <si>
+    <t>2792735</t>
+  </si>
+  <si>
+    <t>ncoa2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45797367</t>
+  </si>
+  <si>
+    <t>1656241</t>
+  </si>
+  <si>
+    <t>pck1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45802518</t>
+  </si>
+  <si>
+    <t>1659388</t>
+  </si>
+  <si>
+    <t>mbd4 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45797183</t>
+  </si>
+  <si>
+    <t>3020600</t>
+  </si>
+  <si>
+    <t>gna14 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45804268</t>
+  </si>
+  <si>
+    <t>2016595</t>
+  </si>
+  <si>
+    <t>med23 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45802024</t>
+  </si>
+  <si>
+    <t>3021563</t>
+  </si>
+  <si>
+    <t>med16 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784056</t>
+  </si>
+  <si>
+    <t>2730228</t>
+  </si>
+  <si>
+    <t>acsbg1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45793958</t>
+  </si>
+  <si>
+    <t>4265102</t>
+  </si>
+  <si>
+    <t>ins1 (mus musculus)</t>
+  </si>
+  <si>
+    <t>21053192</t>
+  </si>
+  <si>
+    <t>2790690</t>
+  </si>
+  <si>
+    <t>med14 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784050</t>
+  </si>
+  <si>
+    <t>2791190</t>
+  </si>
+  <si>
+    <t>ncoa1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45797358</t>
+  </si>
+  <si>
+    <t>2791115</t>
+  </si>
+  <si>
+    <t>med17 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784061</t>
+  </si>
+  <si>
+    <t>1803659</t>
+  </si>
+  <si>
+    <t>acsl6 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45782952</t>
+  </si>
+  <si>
+    <t>3022649</t>
+  </si>
+  <si>
+    <t>med13l (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784006</t>
+  </si>
+  <si>
+    <t>2791578</t>
+  </si>
+  <si>
+    <t>gcg (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45801070</t>
+  </si>
+  <si>
+    <t>1656036</t>
+  </si>
+  <si>
+    <t>med13 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784023</t>
+  </si>
+  <si>
+    <t>2960589</t>
+  </si>
+  <si>
+    <t>abcc8 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45456674</t>
+  </si>
+  <si>
+    <t>23806722</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>2830574</t>
+  </si>
+  <si>
+    <t>slco1b1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>22867116</t>
+  </si>
+  <si>
+    <t>24040824</t>
+  </si>
+  <si>
+    <t>1934554</t>
+  </si>
+  <si>
+    <t>ccnc (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45794476</t>
+  </si>
+  <si>
+    <t>2730421</t>
+  </si>
+  <si>
+    <t>acsbg2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45818805</t>
+  </si>
+  <si>
+    <t>2823579</t>
+  </si>
+  <si>
+    <t>cdk19 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783304</t>
+  </si>
+  <si>
+    <t>2788671</t>
+  </si>
+  <si>
+    <t>med27 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45804813</t>
+  </si>
+  <si>
+    <t>1660092</t>
+  </si>
+  <si>
+    <t>med8 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45797303</t>
+  </si>
+  <si>
+    <t>1656232</t>
+  </si>
+  <si>
+    <t>med24 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45797263</t>
+  </si>
+  <si>
+    <t>1908748</t>
+  </si>
+  <si>
+    <t>slco2b1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>19162746</t>
+  </si>
+  <si>
+    <t>2999669</t>
+  </si>
+  <si>
+    <t>med25 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784182</t>
+  </si>
+  <si>
+    <t>1697652</t>
+  </si>
+  <si>
+    <t>hla-g (homo sapiens)</t>
+  </si>
+  <si>
+    <t>24248130</t>
+  </si>
+  <si>
+    <t>2829390</t>
+  </si>
+  <si>
+    <t>med22 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784139</t>
+  </si>
+  <si>
+    <t>2126221</t>
+  </si>
+  <si>
+    <t>cdk8 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45800496</t>
+  </si>
+  <si>
+    <t>2830781</t>
+  </si>
+  <si>
+    <t>slco1b3 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18796681</t>
+  </si>
+  <si>
+    <t>3020818</t>
+  </si>
+  <si>
+    <t>gna15 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45801093</t>
+  </si>
+  <si>
+    <t>3022191</t>
+  </si>
+  <si>
+    <t>kcnj11 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>23806712</t>
+  </si>
+  <si>
+    <t>45456745</t>
+  </si>
+  <si>
+    <t>3021963</t>
+  </si>
+  <si>
+    <t>kcnj1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45456858</t>
+  </si>
+  <si>
+    <t>3000389</t>
+  </si>
+  <si>
+    <t>med20 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784090</t>
+  </si>
+  <si>
+    <t>3022563</t>
+  </si>
+  <si>
+    <t>med30 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45802094</t>
+  </si>
+  <si>
+    <t>3010565</t>
+  </si>
+  <si>
+    <t>med15 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45801996</t>
+  </si>
+  <si>
+    <t>2785940</t>
+  </si>
+  <si>
+    <t>med26 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45804795</t>
+  </si>
+  <si>
+    <t>2998938</t>
+  </si>
+  <si>
+    <t>med9 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784181</t>
+  </si>
+  <si>
+    <t>2994580</t>
+  </si>
+  <si>
+    <t>med29 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784192</t>
+  </si>
+  <si>
+    <t>2994593</t>
+  </si>
+  <si>
+    <t>med31 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45802227</t>
+  </si>
+  <si>
+    <t>2829363</t>
+  </si>
+  <si>
+    <t>med21 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45784111</t>
+  </si>
+  <si>
+    <t>1575923</t>
+  </si>
+  <si>
+    <t>helz2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45783797</t>
+  </si>
+  <si>
+    <t>1657761</t>
+  </si>
+  <si>
+    <t>plin1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45797451</t>
   </si>
   <si>
     <t>2730844</t>
@@ -150,664 +1257,7 @@
     <t>med10 (homo sapiens)</t>
   </si>
   <si>
-    <t>111972379</t>
-  </si>
-  <si>
-    <t>2785900</t>
-  </si>
-  <si>
-    <t>gnb1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111964600</t>
-  </si>
-  <si>
-    <t>2723853</t>
-  </si>
-  <si>
-    <t>pparg (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111972821</t>
-  </si>
-  <si>
-    <t>2788498</t>
-  </si>
-  <si>
-    <t>gnb3 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111969064</t>
-  </si>
-  <si>
-    <t>2788262</t>
-  </si>
-  <si>
-    <t>gnb2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111964643</t>
-  </si>
-  <si>
-    <t>3021478</t>
-  </si>
-  <si>
-    <t>gnb4 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951034</t>
-  </si>
-  <si>
-    <t>667631</t>
-  </si>
-  <si>
-    <t>gng2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951091</t>
-  </si>
-  <si>
-    <t>3020695</t>
-  </si>
-  <si>
-    <t>gngt1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111972156</t>
-  </si>
-  <si>
-    <t>1656749</t>
-  </si>
-  <si>
-    <t>ppt1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951760</t>
-  </si>
-  <si>
-    <t>3020727</t>
-  </si>
-  <si>
-    <t>gng11 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111964710</t>
-  </si>
-  <si>
-    <t>667356</t>
-  </si>
-  <si>
-    <t>gng12 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951073</t>
-  </si>
-  <si>
-    <t>3020670</t>
-  </si>
-  <si>
-    <t>gng4 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111972130</t>
-  </si>
-  <si>
-    <t>2791192</t>
-  </si>
-  <si>
-    <t>gnai2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111950976</t>
-  </si>
-  <si>
-    <t>3020880</t>
-  </si>
-  <si>
-    <t>gnb5 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111964678</t>
-  </si>
-  <si>
-    <t>3020710</t>
-  </si>
-  <si>
-    <t>gng7 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951143</t>
-  </si>
-  <si>
-    <t>2791122</t>
-  </si>
-  <si>
-    <t>cebpa (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111966956</t>
-  </si>
-  <si>
-    <t>3020676</t>
-  </si>
-  <si>
-    <t>gng3 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951111</t>
-  </si>
-  <si>
-    <t>2724856</t>
-  </si>
-  <si>
-    <t>crebbp (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111950829</t>
-  </si>
-  <si>
-    <t>3020607</t>
-  </si>
-  <si>
-    <t>gng5 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111964730</t>
-  </si>
-  <si>
-    <t>1653849</t>
-  </si>
-  <si>
-    <t>gng8 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111969085</t>
-  </si>
-  <si>
-    <t>3020901</t>
-  </si>
-  <si>
-    <t>gngt2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111964811</t>
-  </si>
-  <si>
-    <t>3020519</t>
-  </si>
-  <si>
-    <t>gng10 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111972091</t>
-  </si>
-  <si>
-    <t>2788945</t>
-  </si>
-  <si>
-    <t>gnaq (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951016</t>
-  </si>
-  <si>
-    <t>3009969</t>
-  </si>
-  <si>
-    <t>gng13 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951084</t>
-  </si>
-  <si>
-    <t>1656888</t>
-  </si>
-  <si>
-    <t>ppt2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111965563</t>
-  </si>
-  <si>
-    <t>2791086</t>
-  </si>
-  <si>
-    <t>ep300 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111950919</t>
-  </si>
-  <si>
-    <t>1803353</t>
-  </si>
-  <si>
-    <t>med12 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111965104</t>
-  </si>
-  <si>
-    <t>2791993</t>
-  </si>
-  <si>
-    <t>acsl1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111971249</t>
-  </si>
-  <si>
-    <t>2278778</t>
-  </si>
-  <si>
-    <t>lep (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111965045</t>
-  </si>
-  <si>
-    <t>1657431</t>
-  </si>
-  <si>
-    <t>ppargc1a (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111970134</t>
-  </si>
-  <si>
-    <t>2790719</t>
-  </si>
-  <si>
-    <t>med1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111965143</t>
-  </si>
-  <si>
-    <t>2792552</t>
-  </si>
-  <si>
-    <t>ncoa3 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111972718</t>
-  </si>
-  <si>
-    <t>2148815</t>
-  </si>
-  <si>
-    <t>gna11 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111964592</t>
-  </si>
-  <si>
-    <t>2788376</t>
-  </si>
-  <si>
-    <t>rxra (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111965671</t>
-  </si>
-  <si>
-    <t>1794838</t>
-  </si>
-  <si>
-    <t>acsl3 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111968044</t>
-  </si>
-  <si>
-    <t>1806076</t>
-  </si>
-  <si>
-    <t>angptl4 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111950646</t>
-  </si>
-  <si>
-    <t>3022065</t>
-  </si>
-  <si>
-    <t>acsl5 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111950300</t>
-  </si>
-  <si>
-    <t>2138626</t>
-  </si>
-  <si>
-    <t>adipoq (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111968080</t>
-  </si>
-  <si>
-    <t>2998664</t>
-  </si>
-  <si>
-    <t>med4 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111969778</t>
-  </si>
-  <si>
-    <t>2792735</t>
-  </si>
-  <si>
-    <t>ncoa2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111965430</t>
-  </si>
-  <si>
-    <t>1656241</t>
-  </si>
-  <si>
-    <t>pck1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111970062</t>
-  </si>
-  <si>
-    <t>3017603</t>
-  </si>
-  <si>
-    <t>acsl4 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111950277</t>
-  </si>
-  <si>
-    <t>1659388</t>
-  </si>
-  <si>
-    <t>mbd4 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111965141</t>
-  </si>
-  <si>
-    <t>3020600</t>
-  </si>
-  <si>
-    <t>gna14 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111972027</t>
-  </si>
-  <si>
-    <t>3021563</t>
-  </si>
-  <si>
-    <t>med16 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951456</t>
-  </si>
-  <si>
-    <t>2730228</t>
-  </si>
-  <si>
-    <t>acsbg1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111963276</t>
-  </si>
-  <si>
-    <t>2790690</t>
-  </si>
-  <si>
-    <t>med14 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951449</t>
-  </si>
-  <si>
-    <t>2791190</t>
-  </si>
-  <si>
-    <t>ncoa1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111965406</t>
-  </si>
-  <si>
-    <t>2016595</t>
-  </si>
-  <si>
-    <t>med23 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111969629</t>
-  </si>
-  <si>
-    <t>2791115</t>
-  </si>
-  <si>
-    <t>med17 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951466</t>
-  </si>
-  <si>
-    <t>1803659</t>
-  </si>
-  <si>
-    <t>acsl6 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111950340</t>
-  </si>
-  <si>
-    <t>2791578</t>
-  </si>
-  <si>
-    <t>gcg (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111969024</t>
-  </si>
-  <si>
-    <t>1656036</t>
-  </si>
-  <si>
-    <t>med13 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951427</t>
-  </si>
-  <si>
-    <t>1934554</t>
-  </si>
-  <si>
-    <t>ccnc (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111963796</t>
-  </si>
-  <si>
-    <t>2730421</t>
-  </si>
-  <si>
-    <t>acsbg2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111986020</t>
-  </si>
-  <si>
-    <t>2823579</t>
-  </si>
-  <si>
-    <t>cdk19 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111950733</t>
-  </si>
-  <si>
-    <t>3022649</t>
-  </si>
-  <si>
-    <t>med13l (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951407</t>
-  </si>
-  <si>
-    <t>2788671</t>
-  </si>
-  <si>
-    <t>med27 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111972395</t>
-  </si>
-  <si>
-    <t>1660092</t>
-  </si>
-  <si>
-    <t>med8 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111965339</t>
-  </si>
-  <si>
-    <t>1656232</t>
-  </si>
-  <si>
-    <t>med24 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111965219</t>
-  </si>
-  <si>
-    <t>2999669</t>
-  </si>
-  <si>
-    <t>med25 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951607</t>
-  </si>
-  <si>
-    <t>2829390</t>
-  </si>
-  <si>
-    <t>med22 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951538</t>
-  </si>
-  <si>
-    <t>2126221</t>
-  </si>
-  <si>
-    <t>cdk8 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111968679</t>
-  </si>
-  <si>
-    <t>3020818</t>
-  </si>
-  <si>
-    <t>gna15 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111969041</t>
-  </si>
-  <si>
-    <t>3000389</t>
-  </si>
-  <si>
-    <t>med20 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951493</t>
-  </si>
-  <si>
-    <t>3022563</t>
-  </si>
-  <si>
-    <t>med30 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111969672</t>
-  </si>
-  <si>
-    <t>3010565</t>
-  </si>
-  <si>
-    <t>med15 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111969593</t>
-  </si>
-  <si>
-    <t>2785940</t>
-  </si>
-  <si>
-    <t>med26 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111972388</t>
-  </si>
-  <si>
-    <t>2998938</t>
-  </si>
-  <si>
-    <t>med9 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951606</t>
-  </si>
-  <si>
-    <t>2994580</t>
-  </si>
-  <si>
-    <t>med29 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951619</t>
-  </si>
-  <si>
-    <t>2994593</t>
-  </si>
-  <si>
-    <t>med31 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111969738</t>
-  </si>
-  <si>
-    <t>2829363</t>
-  </si>
-  <si>
-    <t>med21 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951506</t>
-  </si>
-  <si>
-    <t>1575923</t>
-  </si>
-  <si>
-    <t>helz2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111951169</t>
-  </si>
-  <si>
-    <t>1657761</t>
-  </si>
-  <si>
-    <t>plin1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111965539</t>
+    <t>45804781</t>
   </si>
   <si>
     <t>2790744</t>
@@ -816,7 +1266,7 @@
     <t>med6 (homo sapiens)</t>
   </si>
   <si>
-    <t>111972415</t>
+    <t>45804829</t>
   </si>
   <si>
     <t>2998720</t>
@@ -825,7 +1275,7 @@
     <t>med18 (homo sapiens)</t>
   </si>
   <si>
-    <t>111965132</t>
+    <t>45797170</t>
   </si>
   <si>
     <t>2772747</t>
@@ -834,7 +1284,7 @@
     <t>med11 (homo sapiens)</t>
   </si>
   <si>
-    <t>111951391</t>
+    <t>45784001</t>
   </si>
   <si>
     <t>2786801</t>
@@ -843,7 +1293,7 @@
     <t>med7 (homo sapiens)</t>
   </si>
   <si>
-    <t>111972678</t>
+    <t>45805062</t>
   </si>
   <si>
     <t>3010558</t>
@@ -852,7 +1302,7 @@
     <t>c1qtnf1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111950977</t>
+    <t>45783617</t>
   </si>
   <si>
     <t>1787798</t>
@@ -861,7 +1311,7 @@
     <t>gip (homo sapiens)</t>
   </si>
   <si>
-    <t>111950978</t>
+    <t>45783623</t>
   </si>
   <si>
     <t>1700392</t>
@@ -870,7 +1320,160 @@
     <t>ffar1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111950939</t>
+    <t>45783561</t>
+  </si>
+  <si>
+    <t>5699121</t>
+  </si>
+  <si>
+    <t>body weight decreased</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>16193400</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>536761</t>
+  </si>
+  <si>
+    <t>hepatitis, toxic</t>
+  </si>
+  <si>
+    <t>16193269</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>790153</t>
+  </si>
+  <si>
+    <t>hepatitis, drug-induced</t>
+  </si>
+  <si>
+    <t>16193274</t>
+  </si>
+  <si>
+    <t>636875</t>
+  </si>
+  <si>
+    <t>drug-induced liver injury</t>
+  </si>
+  <si>
+    <t>16193267</t>
+  </si>
+  <si>
+    <t>1937679</t>
+  </si>
+  <si>
+    <t>drug-induced acute liver injury</t>
+  </si>
+  <si>
+    <t>16193272</t>
+  </si>
+  <si>
+    <t>437699</t>
+  </si>
+  <si>
+    <t>hepatitis</t>
+  </si>
+  <si>
+    <t>16193318</t>
+  </si>
+  <si>
+    <t>4042438</t>
+  </si>
+  <si>
+    <t>cholestasis</t>
+  </si>
+  <si>
+    <t>16193219</t>
+  </si>
+  <si>
+    <t>836694</t>
+  </si>
+  <si>
+    <t>vasculitis</t>
+  </si>
+  <si>
+    <t>16193391</t>
+  </si>
+  <si>
+    <t>4042009</t>
+  </si>
+  <si>
+    <t>toxic epidermal necrolysis</t>
+  </si>
+  <si>
+    <t>16193381</t>
+  </si>
+  <si>
+    <t>5158816</t>
+  </si>
+  <si>
+    <t>stevens-johnson syndrome</t>
+  </si>
+  <si>
+    <t>16193373</t>
+  </si>
+  <si>
+    <t>3204847</t>
+  </si>
+  <si>
+    <t>drug-induced stevens johnson syndrome</t>
+  </si>
+  <si>
+    <t>16193379</t>
+  </si>
+  <si>
+    <t>1932384</t>
+  </si>
+  <si>
+    <t>stevens-johnson syndrome toxic epidermal necrolysis spectrum</t>
+  </si>
+  <si>
+    <t>16193375</t>
+  </si>
+  <si>
+    <t>1936620</t>
+  </si>
+  <si>
+    <t>mycoplasma-induced stevens-johnson syndrome</t>
+  </si>
+  <si>
+    <t>16193377</t>
+  </si>
+  <si>
+    <t>586154</t>
+  </si>
+  <si>
+    <t>intrahepatic cholestasis</t>
+  </si>
+  <si>
+    <t>16193238</t>
+  </si>
+  <si>
+    <t>98828</t>
+  </si>
+  <si>
+    <t>shock, cardiogenic</t>
+  </si>
+  <si>
+    <t>16193337</t>
+  </si>
+  <si>
+    <t>4027506</t>
+  </si>
+  <si>
+    <t>pancreatic diseases</t>
+  </si>
+  <si>
+    <t>16193328</t>
   </si>
 </sst>
 </file>
@@ -998,6 +1601,819 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6.663508415222168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.581191539764404</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.456296920776367</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.415311336517334</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.384344577789307</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.37190055847168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6.003165245056152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.8044257164001465</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5.6794867515563965</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5.3754167556762695</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5.365216255187988</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5.359475135803223</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5.231405735015869</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5.217891693115234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5.142733573913574</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5.080968856811523</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5.080968856811523</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5.080968856811523</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5.019905090332031</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4.921790599822998</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4.919522762298584</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4.857724189758301</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4.569607734680176</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4.501811981201172</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.394363880157471</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4.360024929046631</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4.3516998291015625</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1088,6 +2504,93 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7.438743591308594</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.48047399520874</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.292248249053955</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1180,16 +2683,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.1663336753845215</v>
+        <v>6.398861408233643</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -1198,27 +2701,27 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.164669513702393</v>
+        <v>6.3965935707092285</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1227,27 +2730,27 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.1559929847717285</v>
+        <v>6.388148307800293</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -1256,27 +2759,27 @@
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.122821807861328</v>
+        <v>6.354798793792725</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1285,27 +2788,27 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.60068416595459</v>
+        <v>5.81995153427124</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -1314,27 +2817,27 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.582148551940918</v>
+        <v>5.814097881317139</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1343,27 +2846,27 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.545579433441162</v>
+        <v>5.7807745933532715</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -1372,56 +2875,56 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.5138630867004395</v>
+        <v>5.764729022979736</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.465724945068359</v>
+        <v>5.74581241607666</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -1430,27 +2933,27 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.432937145233154</v>
+        <v>5.697673797607422</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -1459,27 +2962,27 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.3961381912231445</v>
+        <v>5.664886474609375</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -1488,27 +2991,27 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.37997579574585</v>
+        <v>5.641949653625488</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -1517,27 +3020,27 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.3748674392700195</v>
+        <v>5.629419803619385</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -1546,27 +3049,27 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.374088287353516</v>
+        <v>5.612540245056152</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -1575,27 +3078,27 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.368119239807129</v>
+        <v>5.607905387878418</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
@@ -1604,27 +3107,27 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.362227916717529</v>
+        <v>5.606816291809082</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1633,27 +3136,27 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.359171390533447</v>
+        <v>5.600226879119873</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -1662,27 +3165,27 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.3521728515625</v>
+        <v>5.594657897949219</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -1691,27 +3194,27 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.350858211517334</v>
+        <v>5.59112024307251</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -1720,27 +3223,27 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.349374771118164</v>
+        <v>5.584449768066406</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1749,27 +3252,27 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.344726085662842</v>
+        <v>5.584122180938721</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -1778,27 +3281,27 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.336129188537598</v>
+        <v>5.581158638000488</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
@@ -1807,27 +3310,27 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.331852436065674</v>
+        <v>5.575839996337891</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -1836,27 +3339,27 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.3303022384643555</v>
+        <v>5.572819232940674</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -1865,27 +3368,27 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.324220657348633</v>
+        <v>5.563801288604736</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -1894,27 +3397,27 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.317698001861572</v>
+        <v>5.563629150390625</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
@@ -1923,27 +3426,27 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.313592910766602</v>
+        <v>5.5561699867248535</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
@@ -1952,27 +3455,27 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.309630393981934</v>
+        <v>5.550002098083496</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
@@ -1981,27 +3484,27 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.3085432052612305</v>
+        <v>5.545183181762695</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -2010,27 +3513,27 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.291146755218506</v>
+        <v>5.541759967803955</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
@@ -2039,27 +3542,27 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.280054569244385</v>
+        <v>5.540492057800293</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
         <v>28</v>
@@ -2068,27 +3571,27 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c r="I32" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.272827625274658</v>
+        <v>5.540310859680176</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
@@ -2097,27 +3600,27 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.271446704864502</v>
+        <v>5.523095607757568</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
         <v>28</v>
@@ -2126,27 +3629,27 @@
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="I34" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.26767635345459</v>
+        <v>5.522529125213623</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
         <v>28</v>
@@ -2155,27 +3658,27 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.23477029800415</v>
+        <v>5.506741523742676</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
         <v>28</v>
@@ -2184,27 +3687,27 @@
         <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.2138495445251465</v>
+        <v>5.502406597137451</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
         <v>28</v>
@@ -2213,27 +3716,27 @@
         <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.213172435760498</v>
+        <v>5.466719150543213</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
@@ -2242,27 +3745,27 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.198230743408203</v>
+        <v>5.464779853820801</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
@@ -2271,27 +3774,27 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.1968255043029785</v>
+        <v>5.463698863983154</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
@@ -2300,27 +3803,27 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.196120738983154</v>
+        <v>5.450064182281494</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
         <v>28</v>
@@ -2329,27 +3832,27 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.186136722564697</v>
+        <v>5.4475998878479</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
@@ -2358,27 +3861,27 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.18178653717041</v>
+        <v>5.4428558349609375</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
         <v>28</v>
@@ -2387,27 +3890,27 @@
         <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="I43" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.162160873413086</v>
+        <v>5.430413722991943</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
         <v>28</v>
@@ -2416,27 +3919,27 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="I44" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.153952121734619</v>
+        <v>5.429945945739746</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
@@ -2445,27 +3948,27 @@
         <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.1474289894104</v>
+        <v>5.429008960723877</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
         <v>28</v>
@@ -2474,27 +3977,27 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="I46" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.133267402648926</v>
+        <v>5.425713539123535</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
@@ -2503,27 +4006,27 @@
         <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.132723808288574</v>
+        <v>5.419046401977539</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
@@ -2532,27 +4035,27 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.119470119476318</v>
+        <v>5.414706230163574</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
         <v>28</v>
@@ -2561,27 +4064,27 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.089887619018555</v>
+        <v>5.394618034362793</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
@@ -2590,27 +4093,27 @@
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="I50" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.089887619018555</v>
+        <v>5.386935710906982</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>281</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>282</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
         <v>28</v>
@@ -2619,27 +4122,27 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="I51" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.05652379989624</v>
+        <v>5.385382652282715</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
         <v>28</v>
@@ -2648,27 +4151,27 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.031166076660156</v>
+        <v>5.364400863647461</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
         <v>28</v>
@@ -2677,27 +4180,27 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>185</v>
+        <v>289</v>
       </c>
       <c r="I53" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.025633335113525</v>
+        <v>5.356159687042236</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
         <v>28</v>
@@ -2706,27 +4209,27 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="I54" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.0207343101501465</v>
+        <v>5.328094005584717</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
         <v>28</v>
@@ -2735,27 +4238,27 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.01076602935791</v>
+        <v>5.321836471557617</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>297</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
         <v>28</v>
@@ -2764,27 +4267,27 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="I56" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.000932693481445</v>
+        <v>5.321836471557617</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
         <v>28</v>
@@ -2793,27 +4296,27 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="I57" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.989360809326172</v>
+        <v>5.299038410186768</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
         <v>28</v>
@@ -2822,27 +4325,27 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="I58" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.9547247886657715</v>
+        <v>5.289120674133301</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
         <v>28</v>
@@ -2851,27 +4354,27 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="I59" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.913496017456055</v>
+        <v>5.264487266540527</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
         <v>28</v>
@@ -2880,27 +4383,27 @@
         <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H60" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.907599449157715</v>
+        <v>5.253035068511963</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>311</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E61" t="s">
         <v>28</v>
@@ -2909,27 +4412,27 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="I61" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4.9020843505859375</v>
+        <v>5.243434906005859</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>315</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
         <v>28</v>
@@ -2938,27 +4441,27 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="I62" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4.900230407714844</v>
+        <v>5.232513427734375</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="C63" t="s">
-        <v>214</v>
+        <v>318</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
         <v>28</v>
@@ -2967,27 +4470,27 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="I63" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.896966934204102</v>
+        <v>5.230666160583496</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>217</v>
+        <v>321</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
         <v>28</v>
@@ -2996,27 +4499,27 @@
         <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="I64" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.884625434875488</v>
+        <v>5.2216877937316895</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>323</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
         <v>28</v>
@@ -3025,27 +4528,27 @@
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>221</v>
+        <v>325</v>
       </c>
       <c r="I65" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.87340784072876</v>
+        <v>5.205122947692871</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>326</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E66" t="s">
         <v>28</v>
@@ -3054,27 +4557,33 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>224</v>
+        <v>328</v>
       </c>
       <c r="I66" t="s">
-        <v>32</v>
+        <v>101</v>
+      </c>
+      <c r="J66" t="s">
+        <v>329</v>
+      </c>
+      <c r="K66" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.869935512542725</v>
+        <v>5.189532279968262</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>331</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>332</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
         <v>28</v>
@@ -3083,27 +4592,33 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="I67" t="s">
-        <v>32</v>
+        <v>101</v>
+      </c>
+      <c r="J67" t="s">
+        <v>334</v>
+      </c>
+      <c r="K67" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.853698253631592</v>
+        <v>5.186673641204834</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>335</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>336</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E68" t="s">
         <v>28</v>
@@ -3112,27 +4627,27 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="I68" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.849020004272461</v>
+        <v>5.145444869995117</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="C69" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
         <v>28</v>
@@ -3141,27 +4656,27 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>233</v>
+        <v>340</v>
       </c>
       <c r="I69" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.822625637054443</v>
+        <v>5.142280101776123</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E70" t="s">
         <v>28</v>
@@ -3170,27 +4685,27 @@
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H70" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="I70" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4.7962965965271</v>
+        <v>5.1321797370910645</v>
       </c>
       <c r="B71" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="C71" t="s">
-        <v>238</v>
+        <v>345</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
         <v>28</v>
@@ -3199,27 +4714,27 @@
         <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>239</v>
+        <v>346</v>
       </c>
       <c r="I71" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.795114994049072</v>
+        <v>5.128915786743164</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>347</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
         <v>28</v>
@@ -3228,27 +4743,27 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="I72" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4.76889705657959</v>
+        <v>5.118016719818115</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>351</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E73" t="s">
         <v>28</v>
@@ -3257,27 +4772,27 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>352</v>
       </c>
       <c r="I73" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4.764474868774414</v>
+        <v>5.111245632171631</v>
       </c>
       <c r="B74" t="s">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
         <v>28</v>
@@ -3286,27 +4801,27 @@
         <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>248</v>
+        <v>355</v>
       </c>
       <c r="I74" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4.759365558624268</v>
+        <v>5.105356693267822</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E75" t="s">
         <v>28</v>
@@ -3315,27 +4830,27 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="I75" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4.742332458496094</v>
+        <v>5.103872299194336</v>
       </c>
       <c r="B76" t="s">
-        <v>252</v>
+        <v>359</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
         <v>28</v>
@@ -3344,27 +4859,27 @@
         <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="I76" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.714748859405518</v>
+        <v>5.101884365081787</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>362</v>
       </c>
       <c r="C77" t="s">
-        <v>256</v>
+        <v>363</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
         <v>28</v>
@@ -3373,27 +4888,27 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>257</v>
+        <v>364</v>
       </c>
       <c r="I77" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.704665184020996</v>
+        <v>5.089251518249512</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>365</v>
       </c>
       <c r="C78" t="s">
-        <v>259</v>
+        <v>366</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
         <v>28</v>
@@ -3402,27 +4917,27 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H78" t="s">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="I78" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4.703205585479736</v>
+        <v>5.085647106170654</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>368</v>
       </c>
       <c r="C79" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E79" t="s">
         <v>28</v>
@@ -3431,27 +4946,27 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H79" t="s">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="I79" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4.639536380767822</v>
+        <v>5.082013130187988</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="C80" t="s">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E80" t="s">
         <v>28</v>
@@ -3460,27 +4975,27 @@
         <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H80" t="s">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="I80" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4.616055011749268</v>
+        <v>5.081491470336914</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>374</v>
       </c>
       <c r="C81" t="s">
-        <v>268</v>
+        <v>375</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E81" t="s">
         <v>28</v>
@@ -3489,27 +5004,33 @@
         <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H81" t="s">
-        <v>269</v>
+        <v>376</v>
       </c>
       <c r="I81" t="s">
-        <v>32</v>
+        <v>330</v>
+      </c>
+      <c r="J81" t="s">
+        <v>377</v>
+      </c>
+      <c r="K81" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4.6042799949646</v>
+        <v>5.074121475219727</v>
       </c>
       <c r="B82" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>379</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E82" t="s">
         <v>28</v>
@@ -3518,27 +5039,27 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H82" t="s">
-        <v>272</v>
+        <v>380</v>
       </c>
       <c r="I82" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4.591231822967529</v>
+        <v>5.054574966430664</v>
       </c>
       <c r="B83" t="s">
-        <v>273</v>
+        <v>381</v>
       </c>
       <c r="C83" t="s">
-        <v>274</v>
+        <v>382</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E83" t="s">
         <v>28</v>
@@ -3547,27 +5068,27 @@
         <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H83" t="s">
-        <v>275</v>
+        <v>383</v>
       </c>
       <c r="I83" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4.556784629821777</v>
+        <v>5.030012607574463</v>
       </c>
       <c r="B84" t="s">
-        <v>276</v>
+        <v>384</v>
       </c>
       <c r="C84" t="s">
-        <v>277</v>
+        <v>385</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E84" t="s">
         <v>28</v>
@@ -3576,27 +5097,27 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H84" t="s">
-        <v>278</v>
+        <v>386</v>
       </c>
       <c r="I84" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4.523811340332031</v>
+        <v>5.027063846588135</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>387</v>
       </c>
       <c r="C85" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E85" t="s">
         <v>28</v>
@@ -3605,27 +5126,27 @@
         <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H85" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="I85" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4.505760192871094</v>
+        <v>5.000845909118652</v>
       </c>
       <c r="B86" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="C86" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E86" t="s">
         <v>28</v>
@@ -3634,13 +5155,419 @@
         <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H86" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="I86" t="s">
-        <v>32</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>4.996424198150635</v>
+      </c>
+      <c r="B87" t="s">
+        <v>393</v>
+      </c>
+      <c r="C87" t="s">
+        <v>394</v>
+      </c>
+      <c r="D87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>395</v>
+      </c>
+      <c r="I87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>4.991314888000488</v>
+      </c>
+      <c r="B88" t="s">
+        <v>396</v>
+      </c>
+      <c r="C88" t="s">
+        <v>397</v>
+      </c>
+      <c r="D88" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>398</v>
+      </c>
+      <c r="I88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4.974281311035156</v>
+      </c>
+      <c r="B89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D89" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>401</v>
+      </c>
+      <c r="I89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4.947409152984619</v>
+      </c>
+      <c r="B90" t="s">
+        <v>402</v>
+      </c>
+      <c r="C90" t="s">
+        <v>403</v>
+      </c>
+      <c r="D90" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>404</v>
+      </c>
+      <c r="I90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>4.940242290496826</v>
+      </c>
+      <c r="B91" t="s">
+        <v>405</v>
+      </c>
+      <c r="C91" t="s">
+        <v>406</v>
+      </c>
+      <c r="D91" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>407</v>
+      </c>
+      <c r="I91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>4.936614036560059</v>
+      </c>
+      <c r="B92" t="s">
+        <v>408</v>
+      </c>
+      <c r="C92" t="s">
+        <v>409</v>
+      </c>
+      <c r="D92" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>410</v>
+      </c>
+      <c r="I92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>4.873175144195557</v>
+      </c>
+      <c r="B93" t="s">
+        <v>411</v>
+      </c>
+      <c r="C93" t="s">
+        <v>412</v>
+      </c>
+      <c r="D93" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>413</v>
+      </c>
+      <c r="I93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4.871485233306885</v>
+      </c>
+      <c r="B94" t="s">
+        <v>414</v>
+      </c>
+      <c r="C94" t="s">
+        <v>415</v>
+      </c>
+      <c r="D94" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>416</v>
+      </c>
+      <c r="I94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4.8488969802856445</v>
+      </c>
+      <c r="B95" t="s">
+        <v>417</v>
+      </c>
+      <c r="C95" t="s">
+        <v>418</v>
+      </c>
+      <c r="D95" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>419</v>
+      </c>
+      <c r="I95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4.83622932434082</v>
+      </c>
+      <c r="B96" t="s">
+        <v>420</v>
+      </c>
+      <c r="C96" t="s">
+        <v>421</v>
+      </c>
+      <c r="D96" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>422</v>
+      </c>
+      <c r="I96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4.825068950653076</v>
+      </c>
+      <c r="B97" t="s">
+        <v>423</v>
+      </c>
+      <c r="C97" t="s">
+        <v>424</v>
+      </c>
+      <c r="D97" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" t="s">
+        <v>425</v>
+      </c>
+      <c r="I97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>4.79179573059082</v>
+      </c>
+      <c r="B98" t="s">
+        <v>426</v>
+      </c>
+      <c r="C98" t="s">
+        <v>427</v>
+      </c>
+      <c r="D98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>428</v>
+      </c>
+      <c r="I98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>4.755760669708252</v>
+      </c>
+      <c r="B99" t="s">
+        <v>429</v>
+      </c>
+      <c r="C99" t="s">
+        <v>430</v>
+      </c>
+      <c r="D99" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>431</v>
+      </c>
+      <c r="I99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>4.7388596534729</v>
+      </c>
+      <c r="B100" t="s">
+        <v>432</v>
+      </c>
+      <c r="C100" t="s">
+        <v>433</v>
+      </c>
+      <c r="D100" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>434</v>
+      </c>
+      <c r="I100" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3733,6 +5660,470 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5.975615501403809</v>
+      </c>
+      <c r="B2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.881775379180908</v>
+      </c>
+      <c r="B3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5.880699157714844</v>
+      </c>
+      <c r="B4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.880035877227783</v>
+      </c>
+      <c r="B5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>449</v>
+      </c>
+      <c r="I5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.870807647705078</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.806692123413086</v>
+      </c>
+      <c r="B7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5.778997421264648</v>
+      </c>
+      <c r="B8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>458</v>
+      </c>
+      <c r="I8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.764187335968018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>461</v>
+      </c>
+      <c r="I9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5.588529586791992</v>
+      </c>
+      <c r="B10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>464</v>
+      </c>
+      <c r="I10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5.569607734680176</v>
+      </c>
+      <c r="B11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>467</v>
+      </c>
+      <c r="I11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5.466719150543213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D12" t="s">
+        <v>437</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>470</v>
+      </c>
+      <c r="I12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5.464347839355469</v>
+      </c>
+      <c r="B13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C13" t="s">
+        <v>472</v>
+      </c>
+      <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>473</v>
+      </c>
+      <c r="I13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5.464131832122803</v>
+      </c>
+      <c r="B14" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5.329570770263672</v>
+      </c>
+      <c r="B15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" t="s">
+        <v>478</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>479</v>
+      </c>
+      <c r="I15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5.238735675811768</v>
+      </c>
+      <c r="B16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>482</v>
+      </c>
+      <c r="I16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5.141371250152588</v>
+      </c>
+      <c r="B17" t="s">
+        <v>483</v>
+      </c>
+      <c r="C17" t="s">
+        <v>484</v>
+      </c>
+      <c r="D17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>485</v>
+      </c>
+      <c r="I17" t="s">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
